--- a/schematic/violet_board/BOM for 5 boards.xlsx
+++ b/schematic/violet_board/BOM for 5 boards.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nik\Documents\github\violetMonitor\schematic\violet_board\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="76">
   <si>
     <t>#</t>
   </si>
@@ -246,13 +241,19 @@
   </si>
   <si>
     <t>DS1066-02F</t>
+  </si>
+  <si>
+    <t>LP103450-PCM</t>
+  </si>
+  <si>
+    <t>Pico-ePaper-2.9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,13 +262,38 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -282,8 +308,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -556,7 +586,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -564,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="A20" sqref="A20:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,12 +636,12 @@
       <c r="H1" t="s">
         <v>70</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -636,44 +666,44 @@
       <c r="H2">
         <v>4</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <f>IF(G2&gt;H2,G2-H2,0)</f>
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G22" si="0">F3*5</f>
-        <v>5</v>
-      </c>
-      <c r="H3">
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4">
+        <f t="shared" ref="G3:G24" si="0">F3*5</f>
+        <v>5</v>
+      </c>
+      <c r="H3" s="4">
         <v>8</v>
       </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I22" si="1">IF(G3&gt;H3,G3-H3,0)</f>
+      <c r="I3" s="4">
+        <f t="shared" ref="I3:I24" si="1">IF(G3&gt;H3,G3-H3,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -698,44 +728,44 @@
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="H5">
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H5" s="4">
         <v>8</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -758,15 +788,15 @@
         <v>5</v>
       </c>
       <c r="H6">
-        <v>4</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -791,41 +821,42 @@
       <c r="H7">
         <v>9</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="H8">
+      <c r="E8" s="4"/>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H8" s="4">
         <v>8</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -850,13 +881,13 @@
       <c r="H9">
         <v>2</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="3">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" t="s">
@@ -878,72 +909,73 @@
       <c r="H10">
         <v>9</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F11">
+      <c r="E11" s="4"/>
+      <c r="F11" s="4">
         <v>2</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="4">
         <v>10</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="H12">
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H12" s="4">
         <v>18</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" t="s">
@@ -968,13 +1000,13 @@
       <c r="H13">
         <v>15</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="3">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" t="s">
@@ -999,100 +1031,102 @@
       <c r="H14">
         <v>10</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="3">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="4">
         <v>2</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="4">
         <v>16</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="H16">
+      <c r="E16" s="4"/>
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H16" s="4">
         <v>10</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="H17">
+      <c r="E17" s="4"/>
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H17" s="4">
         <v>9</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" t="s">
@@ -1114,13 +1148,13 @@
       <c r="H18">
         <v>0</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="3">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" t="s">
@@ -1142,13 +1176,13 @@
       <c r="H19">
         <v>10</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="3">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" t="s">
@@ -1170,13 +1204,13 @@
       <c r="H20">
         <v>4</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="3">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" t="s">
@@ -1198,13 +1232,13 @@
       <c r="H21">
         <v>4</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="C22" t="s">
@@ -1220,12 +1254,60 @@
       <c r="H22">
         <v>5</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="3">
         <f t="shared" si="1"/>
         <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24">
+        <v>9000791762</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>